--- a/iSurfer/Galleries/Fuentes.xlsx
+++ b/iSurfer/Galleries/Fuentes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>Newbie</t>
   </si>
@@ -145,13 +145,46 @@
   </si>
   <si>
     <t>Anne Burgess</t>
+  </si>
+  <si>
+    <t>Croissant</t>
+  </si>
+  <si>
+    <t>Miau</t>
+  </si>
+  <si>
+    <t>Geisha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuártica de </t>
+  </si>
+  <si>
+    <t>Quíntica de Barth</t>
+  </si>
+  <si>
+    <t>Alcalde http://www.foro3d.com/f37/arlequin-48690.html</t>
+  </si>
+  <si>
+    <t>http://ingenieriademateriales.wordpress.com/2010/02/24/materiales-nanoestructurados-comportamiento-tribologico/fullereno/</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/_nw7vil9kjNs/TOsv0dsiNpI/AAAAAAAATzk/sFNMU_NRQVo/s400/mariposa.jpg</t>
+  </si>
+  <si>
+    <t>oruga mariposa http://solo50.wordpress.com/2011/12/14/</t>
+  </si>
+  <si>
+    <t>butterfly transformation http://helenhouse.wordpress.com/</t>
+  </si>
+  <si>
+    <t>http://www.drfranklipman.com/disease-transformation/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +215,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -200,11 +246,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -213,8 +261,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -545,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -572,7 +626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3">
         <v>1</v>
       </c>
@@ -585,11 +639,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16">
       <c r="A4">
         <v>2</v>
       </c>
@@ -602,11 +656,11 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="16">
       <c r="A5">
         <v>3</v>
       </c>
@@ -619,11 +673,11 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="16">
       <c r="A6">
         <v>4</v>
       </c>
@@ -636,11 +690,11 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="16">
       <c r="A7">
         <v>5</v>
       </c>
@@ -653,11 +707,11 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="16">
       <c r="A8">
         <v>6</v>
       </c>
@@ -670,11 +724,11 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="16">
       <c r="A9">
         <v>7</v>
       </c>
@@ -687,11 +741,11 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="16">
       <c r="A10">
         <v>8</v>
       </c>
@@ -701,8 +755,14 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16">
       <c r="A11">
         <v>9</v>
       </c>
@@ -712,8 +772,9 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="16">
       <c r="A12">
         <v>10</v>
       </c>
@@ -726,7 +787,7 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -735,6 +796,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="15" spans="1:5">
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16">
         <v>1</v>
@@ -742,6 +814,12 @@
       <c r="B16" t="s">
         <v>21</v>
       </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
@@ -753,6 +831,12 @@
       <c r="B17" t="s">
         <v>22</v>
       </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
       <c r="E17" t="s">
         <v>33</v>
       </c>
@@ -764,6 +848,12 @@
       <c r="B18" t="s">
         <v>23</v>
       </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
       <c r="E18" t="s">
         <v>34</v>
       </c>
@@ -775,6 +865,12 @@
       <c r="B19" t="s">
         <v>24</v>
       </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
       <c r="E19" t="s">
         <v>6</v>
       </c>
@@ -785,6 +881,12 @@
       </c>
       <c r="B20" t="s">
         <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
@@ -800,6 +902,12 @@
       <c r="B21" t="s">
         <v>26</v>
       </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>30</v>
       </c>
@@ -811,6 +919,12 @@
       <c r="B22" t="s">
         <v>27</v>
       </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
       <c r="E22" t="s">
         <v>36</v>
       </c>
@@ -822,6 +936,12 @@
       <c r="B23" t="s">
         <v>28</v>
       </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>38</v>
       </c>
@@ -833,6 +953,12 @@
       <c r="B24" t="s">
         <v>40</v>
       </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="30">
       <c r="A25">
@@ -841,8 +967,17 @@
       <c r="B25" t="s">
         <v>39</v>
       </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -853,6 +988,73 @@
     <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="E38" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -860,6 +1062,7 @@
     <hyperlink ref="E26" r:id="rId1" tooltip="View profile"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/iSurfer/Galleries/Fuentes.xlsx
+++ b/iSurfer/Galleries/Fuentes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="7180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,12 +156,6 @@
     <t>Geisha</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuártica de </t>
-  </si>
-  <si>
-    <t>Quíntica de Barth</t>
-  </si>
-  <si>
     <t>Alcalde http://www.foro3d.com/f37/arlequin-48690.html</t>
   </si>
   <si>
@@ -178,31 +172,22 @@
   </si>
   <si>
     <t>http://www.drfranklipman.com/disease-transformation/</t>
+  </si>
+  <si>
+    <t>Séxtica de Barth</t>
+  </si>
+  <si>
+    <t>Quíntica de Togliatti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color rgb="FF777777"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -248,23 +233,21 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -602,7 +585,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -610,451 +593,526 @@
     <col min="5" max="5" width="117" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="C2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
-      <c r="A3">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="16">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="16">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16">
-      <c r="A5">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="16">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16">
-      <c r="A6">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="16">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="16">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="16">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="16">
-      <c r="A8">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="16">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="16">
-      <c r="A9">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="16">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="16">
-      <c r="A10">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="16">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="16">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="16">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3">
+        <v>10</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="16">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="16">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30">
-      <c r="A25">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="E38" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="E26" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="E37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="E38" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1120,6 @@
     <hyperlink ref="E26" r:id="rId1" tooltip="View profile"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/iSurfer/Galleries/Fuentes.xlsx
+++ b/iSurfer/Galleries/Fuentes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>Newbie</t>
   </si>
@@ -111,42 +111,12 @@
     <t>Expert</t>
   </si>
   <si>
-    <t>Rita Rataiczak</t>
-  </si>
-  <si>
-    <t>Hans Braxmeier</t>
-  </si>
-  <si>
-    <t>vicci-blogger</t>
-  </si>
-  <si>
-    <t>Alfonso Salgueiro</t>
-  </si>
-  <si>
-    <t>Rous - Arte y fotografía digital</t>
-  </si>
-  <si>
-    <t>ZedZap Flickr</t>
-  </si>
-  <si>
-    <t>babasteve Flickr</t>
-  </si>
-  <si>
-    <t>PublicDomainPictures pixabay</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hans Braxmeier pixabay</t>
-  </si>
-  <si>
     <t>Tulle</t>
   </si>
   <si>
     <t>Calyx</t>
   </si>
   <si>
-    <t>Anne Burgess</t>
-  </si>
-  <si>
     <t>Croissant</t>
   </si>
   <si>
@@ -162,15 +132,6 @@
     <t>http://ingenieriademateriales.wordpress.com/2010/02/24/materiales-nanoestructurados-comportamiento-tribologico/fullereno/</t>
   </si>
   <si>
-    <t>http://1.bp.blogspot.com/_nw7vil9kjNs/TOsv0dsiNpI/AAAAAAAATzk/sFNMU_NRQVo/s400/mariposa.jpg</t>
-  </si>
-  <si>
-    <t>oruga mariposa http://solo50.wordpress.com/2011/12/14/</t>
-  </si>
-  <si>
-    <t>butterfly transformation http://helenhouse.wordpress.com/</t>
-  </si>
-  <si>
     <t>http://www.drfranklipman.com/disease-transformation/</t>
   </si>
   <si>
@@ -178,6 +139,33 @@
   </si>
   <si>
     <t>Quíntica de Togliatti</t>
+  </si>
+  <si>
+    <t>No es requerida</t>
+  </si>
+  <si>
+    <t>vicci-blogger http://moonstarsandpaper.blogspot.com.ar/2007_09_01_archive.html</t>
+  </si>
+  <si>
+    <t>Revisited: Symmetry in the Upper Sûre Lake by Alfonso Salgueiro Lora - http://www.flickr.com/photos/alsal/6291079735/lightbox/</t>
+  </si>
+  <si>
+    <t>Dalroyd Lane Intersection by Roger May (http://www.geograph.org.uk/photo/124875)</t>
+  </si>
+  <si>
+    <t>Foto digital by Rous - Arte y fotografía digital - http://www.arteyfotografia.com.ar/17073/fotos/398319/</t>
+  </si>
+  <si>
+    <t>Buthan http://www.fotopedia.com/items/flickr-64402224 by babasteve Flickr</t>
+  </si>
+  <si>
+    <t>Sea Campion (Silene uniflora) by Anne Burgess - http://www.geograph.org.uk/photo/1925554</t>
+  </si>
+  <si>
+    <t>jurvetson Flickr http://www.flickr.com/photos/jurvetson/5201796697/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gion geisha dance by Joi Ito - Flickr http://www.fotopedia.com/items/flickr-1284204434</t>
   </si>
 </sst>
 </file>
@@ -582,14 +570,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="117" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -667,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -757,11 +746,11 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -772,7 +761,9 @@
         <v>5</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="1"/>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="16">
@@ -839,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -857,7 +848,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -875,7 +866,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -911,11 +902,9 @@
         <v>5</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3">
@@ -931,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -949,7 +938,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -967,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -976,7 +965,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
@@ -984,7 +973,9 @@
       <c r="D24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6">
@@ -992,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>5</v>
@@ -1003,18 +994,14 @@
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6">
@@ -1046,11 +1033,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6">
@@ -1058,11 +1047,13 @@
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6">
@@ -1070,11 +1061,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6">
@@ -1082,12 +1075,12 @@
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F32" s="3"/>
     </row>
@@ -1096,29 +1089,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="37" spans="1:6">
-      <c r="E37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="E38" t="s">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E26" r:id="rId1" tooltip="View profile"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/iSurfer/Galleries/Fuentes.xlsx
+++ b/iSurfer/Galleries/Fuentes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
   <si>
     <t>Newbie</t>
   </si>
@@ -117,30 +117,15 @@
     <t>Calyx</t>
   </si>
   <si>
-    <t>Croissant</t>
-  </si>
-  <si>
     <t>Miau</t>
   </si>
   <si>
     <t>Geisha</t>
   </si>
   <si>
-    <t>Alcalde http://www.foro3d.com/f37/arlequin-48690.html</t>
-  </si>
-  <si>
-    <t>http://ingenieriademateriales.wordpress.com/2010/02/24/materiales-nanoestructurados-comportamiento-tribologico/fullereno/</t>
-  </si>
-  <si>
     <t>http://www.drfranklipman.com/disease-transformation/</t>
   </si>
   <si>
-    <t>Séxtica de Barth</t>
-  </si>
-  <si>
-    <t>Quíntica de Togliatti</t>
-  </si>
-  <si>
     <t>No es requerida</t>
   </si>
   <si>
@@ -162,10 +147,19 @@
     <t>Sea Campion (Silene uniflora) by Anne Burgess - http://www.geograph.org.uk/photo/1925554</t>
   </si>
   <si>
-    <t>jurvetson Flickr http://www.flickr.com/photos/jurvetson/5201796697/</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Gion geisha dance by Joi Ito - Flickr http://www.fotopedia.com/items/flickr-1284204434</t>
+  </si>
+  <si>
+    <t>Hazelnut</t>
+  </si>
+  <si>
+    <t>Taube</t>
+  </si>
+  <si>
+    <t>wikipedia</t>
+  </si>
+  <si>
+    <t>Harlekin</t>
   </si>
 </sst>
 </file>
@@ -573,7 +567,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -656,7 +650,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -746,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -762,7 +756,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -830,7 +824,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -848,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -866,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -902,7 +896,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -920,7 +914,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -938,7 +932,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -956,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -974,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -1033,12 +1027,12 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="F29" s="3"/>
     </row>
@@ -1047,12 +1041,12 @@
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F30" s="3"/>
     </row>
@@ -1061,12 +1055,12 @@
         <v>3</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F31" s="3"/>
     </row>
@@ -1075,12 +1069,12 @@
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F32" s="3"/>
     </row>
@@ -1089,12 +1083,12 @@
         <v>5</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F33" s="3"/>
     </row>

--- a/iSurfer/Galleries/Fuentes.xlsx
+++ b/iSurfer/Galleries/Fuentes.xlsx
@@ -78,9 +78,6 @@
     <t>interseccion</t>
   </si>
   <si>
-    <t>pera</t>
-  </si>
-  <si>
     <t>Advanced</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Vis a vis</t>
   </si>
   <si>
-    <t>Spitz</t>
-  </si>
-  <si>
     <t>Calypso</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>Nepali</t>
   </si>
   <si>
-    <t>Schneeflocke</t>
-  </si>
-  <si>
     <t>Expert</t>
   </si>
   <si>
@@ -160,6 +151,15 @@
   </si>
   <si>
     <t>Harlekin</t>
+  </si>
+  <si>
+    <t>Dromedar</t>
+  </si>
+  <si>
+    <t>Zeppelin</t>
+  </si>
+  <si>
+    <t>Pacman</t>
   </si>
 </sst>
 </file>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -650,7 +650,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -765,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>5</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>5</v>
@@ -824,7 +824,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -833,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>5</v>
@@ -842,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -851,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>5</v>
@@ -860,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -869,7 +869,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
@@ -887,7 +887,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
@@ -896,7 +896,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -905,7 +905,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
@@ -914,7 +914,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -923,7 +923,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
@@ -932,7 +932,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -941,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
@@ -950,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -959,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
@@ -968,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -977,7 +977,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>5</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1041,12 +1041,12 @@
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F30" s="3"/>
     </row>
@@ -1055,12 +1055,12 @@
         <v>3</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F31" s="3"/>
     </row>
@@ -1069,12 +1069,12 @@
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F32" s="3"/>
     </row>
@@ -1083,12 +1083,12 @@
         <v>5</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F33" s="3"/>
     </row>
